--- a/Documents/Faa Document.xlsx
+++ b/Documents/Faa Document.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudev Deva\Desktop\Git\BillingApp\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16275" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16275" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BugList" sheetId="1" r:id="rId1"/>
     <sheet name="Sales Report" sheetId="2" r:id="rId2"/>
     <sheet name="Manage User" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Issues</t>
   </si>
@@ -48,9 +53,6 @@
     <t>When the product changed, the rest of the columns should be calculated</t>
   </si>
   <si>
-    <t>Incide the Grid, only product name and discount are editable, rest of non editable</t>
-  </si>
-  <si>
     <t>The total quantity should be calculated</t>
   </si>
   <si>
@@ -112,6 +114,24 @@
   </si>
   <si>
     <t>Search</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Inside the Grid, only product name and discount are editable, rest of non editable</t>
+  </si>
+  <si>
+    <t>Quantity also editable</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Next Phase</t>
   </si>
 </sst>
 </file>
@@ -210,25 +230,25 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,6 +258,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -286,7 +309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,7 +344,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,118 +553,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -654,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,271 +764,271 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>43081</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>100</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>50</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <f>F6-G6</f>
         <v>50</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>43082</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>1005</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>1000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <f t="shared" ref="H7:H9" si="0">F7-G7</f>
         <v>5</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>43094</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>8</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>1658</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>43095</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>1758</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>1700</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5">
+      <c r="G11" s="7"/>
+      <c r="H11" s="3">
         <f>SUM(F6:F9)</f>
         <v>4521</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="3">
         <f>SUM(G6:G9)</f>
         <v>4250</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="3">
         <f>H11-H12</f>
         <v>271</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -953,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
